--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Clec11a</t>
+  </si>
+  <si>
+    <t>Itga10</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Clec11a</t>
-  </si>
-  <si>
-    <t>Itga10</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.059611</v>
+        <v>12.37971233333334</v>
       </c>
       <c r="H2">
-        <v>0.178833</v>
+        <v>37.13913700000001</v>
       </c>
       <c r="I2">
-        <v>0.004672740604968267</v>
+        <v>0.9837801504895439</v>
       </c>
       <c r="J2">
-        <v>0.004702393918265596</v>
+        <v>0.9873107942640003</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6605333333333334</v>
+        <v>0.3024036666666667</v>
       </c>
       <c r="N2">
-        <v>1.9816</v>
+        <v>0.907211</v>
       </c>
       <c r="O2">
-        <v>0.1637209603602522</v>
+        <v>0.1338403725060509</v>
       </c>
       <c r="P2">
-        <v>0.1961884434749869</v>
+        <v>0.1457864030115969</v>
       </c>
       <c r="Q2">
-        <v>0.03937505253333334</v>
+        <v>3.743670401878556</v>
       </c>
       <c r="R2">
-        <v>0.3543754728</v>
+        <v>33.693033616907</v>
       </c>
       <c r="S2">
-        <v>0.0007650255793597506</v>
+        <v>0.1316695018055794</v>
       </c>
       <c r="T2">
-        <v>0.000922555343430772</v>
+        <v>0.1439364893502714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.059611</v>
+        <v>12.37971233333334</v>
       </c>
       <c r="H3">
-        <v>0.178833</v>
+        <v>37.13913700000001</v>
       </c>
       <c r="I3">
-        <v>0.004672740604968267</v>
+        <v>0.9837801504895439</v>
       </c>
       <c r="J3">
-        <v>0.004702393918265596</v>
+        <v>0.9873107942640003</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.830056</v>
       </c>
       <c r="O3">
-        <v>0.2338208953337171</v>
+        <v>0.4175167069766398</v>
       </c>
       <c r="P3">
-        <v>0.2801898877609242</v>
+        <v>0.4547824977446127</v>
       </c>
       <c r="Q3">
-        <v>0.056234156072</v>
+        <v>11.67842638907467</v>
       </c>
       <c r="R3">
-        <v>0.506107404648</v>
+        <v>105.105837501672</v>
       </c>
       <c r="S3">
-        <v>0.001092584391915895</v>
+        <v>0.4107446488213775</v>
       </c>
       <c r="T3">
-        <v>0.00131756322416649</v>
+        <v>0.4490116690655995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.059611</v>
+        <v>12.37971233333334</v>
       </c>
       <c r="H4">
-        <v>0.178833</v>
+        <v>37.13913700000001</v>
       </c>
       <c r="I4">
-        <v>0.004672740604968267</v>
+        <v>0.9837801504895439</v>
       </c>
       <c r="J4">
-        <v>0.004702393918265596</v>
+        <v>0.9873107942640003</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2167396666666667</v>
+        <v>0.2635616666666666</v>
       </c>
       <c r="N4">
-        <v>0.650219</v>
+        <v>0.790685</v>
       </c>
       <c r="O4">
-        <v>0.05372147715204018</v>
+        <v>0.116649351622662</v>
       </c>
       <c r="P4">
-        <v>0.06437497654817444</v>
+        <v>0.1270609836798986</v>
       </c>
       <c r="Q4">
-        <v>0.01292006826966667</v>
+        <v>3.262817615427223</v>
       </c>
       <c r="R4">
-        <v>0.116280614427</v>
+        <v>29.365358538845</v>
       </c>
       <c r="S4">
-        <v>0.0002510265276472132</v>
+        <v>0.1147573166938502</v>
       </c>
       <c r="T4">
-        <v>0.0003027164982086259</v>
+        <v>0.1254486807169659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.059611</v>
+        <v>12.37971233333334</v>
       </c>
       <c r="H5">
-        <v>0.178833</v>
+        <v>37.13913700000001</v>
       </c>
       <c r="I5">
-        <v>0.004672740604968267</v>
+        <v>0.9837801504895439</v>
       </c>
       <c r="J5">
-        <v>0.004702393918265596</v>
+        <v>0.9873107942640003</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.0030275</v>
+        <v>0.555428</v>
       </c>
       <c r="N5">
-        <v>4.006055</v>
+        <v>1.110856</v>
       </c>
       <c r="O5">
-        <v>0.496473939132007</v>
+        <v>0.2458260220178906</v>
       </c>
       <c r="P5">
-        <v>0.3966197491548185</v>
+        <v>0.1785116147223198</v>
       </c>
       <c r="Q5">
-        <v>0.1194024723025</v>
+        <v>6.876038861878668</v>
       </c>
       <c r="R5">
-        <v>0.7164148338149999</v>
+        <v>41.25623317127201</v>
       </c>
       <c r="S5">
-        <v>0.002319893934690673</v>
+        <v>0.2418387609350063</v>
       </c>
       <c r="T5">
-        <v>0.001865062296289645</v>
+        <v>0.1762464441168428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.059611</v>
+        <v>12.37971233333334</v>
       </c>
       <c r="H6">
-        <v>0.178833</v>
+        <v>37.13913700000001</v>
       </c>
       <c r="I6">
-        <v>0.004672740604968267</v>
+        <v>0.9837801504895439</v>
       </c>
       <c r="J6">
-        <v>0.004702393918265596</v>
+        <v>0.9873107942640003</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2108543333333333</v>
+        <v>0.19469</v>
       </c>
       <c r="N6">
-        <v>0.632563</v>
+        <v>0.5840700000000001</v>
       </c>
       <c r="O6">
-        <v>0.05226272802198335</v>
+        <v>0.08616754687675653</v>
       </c>
       <c r="P6">
-        <v>0.06262694306109613</v>
+        <v>0.09385850084157203</v>
       </c>
       <c r="Q6">
-        <v>0.01256923766433333</v>
+        <v>2.410206194176668</v>
       </c>
       <c r="R6">
-        <v>0.113123138979</v>
+        <v>21.69185574759001</v>
       </c>
       <c r="S6">
-        <v>0.0002442101713547345</v>
+        <v>0.08476992223373037</v>
       </c>
       <c r="T6">
-        <v>0.0002944965561700643</v>
+        <v>0.09266751101432082</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>12.37971233333334</v>
+        <v>0.06910766666666666</v>
       </c>
       <c r="H7">
-        <v>37.13913700000001</v>
+        <v>0.207323</v>
       </c>
       <c r="I7">
-        <v>0.9704112411768488</v>
+        <v>0.005491787602386767</v>
       </c>
       <c r="J7">
-        <v>0.9765694919753783</v>
+        <v>0.005511496828781867</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6605333333333334</v>
+        <v>0.3024036666666667</v>
       </c>
       <c r="N7">
-        <v>1.9816</v>
+        <v>0.907211</v>
       </c>
       <c r="O7">
-        <v>0.1637209603602522</v>
+        <v>0.1338403725060509</v>
       </c>
       <c r="P7">
-        <v>0.1961884434749869</v>
+        <v>0.1457864030115969</v>
       </c>
       <c r="Q7">
-        <v>8.177212653244448</v>
+        <v>0.02089841179477778</v>
       </c>
       <c r="R7">
-        <v>73.59491387920002</v>
+        <v>0.188085706153</v>
       </c>
       <c r="S7">
-        <v>0.158876660349858</v>
+        <v>0.0007350228984275571</v>
       </c>
       <c r="T7">
-        <v>0.1915916485758082</v>
+        <v>0.0008035012978779316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>12.37971233333334</v>
+        <v>0.06910766666666666</v>
       </c>
       <c r="H8">
-        <v>37.13913700000001</v>
+        <v>0.207323</v>
       </c>
       <c r="I8">
-        <v>0.9704112411768488</v>
+        <v>0.005491787602386767</v>
       </c>
       <c r="J8">
-        <v>0.9765694919753783</v>
+        <v>0.005511496828781867</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.830056</v>
       </c>
       <c r="O8">
-        <v>0.2338208953337171</v>
+        <v>0.4175167069766398</v>
       </c>
       <c r="P8">
-        <v>0.2801898877609242</v>
+        <v>0.4547824977446127</v>
       </c>
       <c r="Q8">
-        <v>11.67842638907467</v>
+        <v>0.06519285556533333</v>
       </c>
       <c r="R8">
-        <v>105.105837501672</v>
+        <v>0.586735700088</v>
       </c>
       <c r="S8">
-        <v>0.2269024252538745</v>
+        <v>0.002292913075163659</v>
       </c>
       <c r="T8">
-        <v>0.273624896347324</v>
+        <v>0.00250653229410493</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>12.37971233333334</v>
+        <v>0.06910766666666666</v>
       </c>
       <c r="H9">
-        <v>37.13913700000001</v>
+        <v>0.207323</v>
       </c>
       <c r="I9">
-        <v>0.9704112411768488</v>
+        <v>0.005491787602386767</v>
       </c>
       <c r="J9">
-        <v>0.9765694919753783</v>
+        <v>0.005511496828781867</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2167396666666667</v>
+        <v>0.2635616666666666</v>
       </c>
       <c r="N9">
-        <v>0.650219</v>
+        <v>0.790685</v>
       </c>
       <c r="O9">
-        <v>0.05372147715204018</v>
+        <v>0.116649351622662</v>
       </c>
       <c r="P9">
-        <v>0.06437497654817444</v>
+        <v>0.1270609836798986</v>
       </c>
       <c r="Q9">
-        <v>2.683174724555889</v>
+        <v>0.01821413180611111</v>
       </c>
       <c r="R9">
-        <v>24.148572521003</v>
+        <v>0.163927186255</v>
       </c>
       <c r="S9">
-        <v>0.05213192532096504</v>
+        <v>0.00064061346306779</v>
       </c>
       <c r="T9">
-        <v>0.06286663814357761</v>
+        <v>0.0007002962086136657</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>12.37971233333334</v>
+        <v>0.06910766666666666</v>
       </c>
       <c r="H10">
-        <v>37.13913700000001</v>
+        <v>0.207323</v>
       </c>
       <c r="I10">
-        <v>0.9704112411768488</v>
+        <v>0.005491787602386767</v>
       </c>
       <c r="J10">
-        <v>0.9765694919753783</v>
+        <v>0.005511496828781867</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.0030275</v>
+        <v>0.555428</v>
       </c>
       <c r="N10">
-        <v>4.006055</v>
+        <v>1.110856</v>
       </c>
       <c r="O10">
-        <v>0.496473939132007</v>
+        <v>0.2458260220178906</v>
       </c>
       <c r="P10">
-        <v>0.3966197491548185</v>
+        <v>0.1785116147223198</v>
       </c>
       <c r="Q10">
-        <v>24.79690424575584</v>
+        <v>0.03838433308133334</v>
       </c>
       <c r="R10">
-        <v>148.781425474535</v>
+        <v>0.230305998488</v>
       </c>
       <c r="S10">
-        <v>0.4817838914850502</v>
+        <v>0.001350024300061908</v>
       </c>
       <c r="T10">
-        <v>0.3873267469395231</v>
+        <v>0.0009838661984427962</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>12.37971233333334</v>
+        <v>0.06910766666666666</v>
       </c>
       <c r="H11">
-        <v>37.13913700000001</v>
+        <v>0.207323</v>
       </c>
       <c r="I11">
-        <v>0.9704112411768488</v>
+        <v>0.005491787602386767</v>
       </c>
       <c r="J11">
-        <v>0.9765694919753783</v>
+        <v>0.005511496828781867</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2108543333333333</v>
+        <v>0.19469</v>
       </c>
       <c r="N11">
-        <v>0.632563</v>
+        <v>0.5840700000000001</v>
       </c>
       <c r="O11">
-        <v>0.05226272802198335</v>
+        <v>0.08616754687675653</v>
       </c>
       <c r="P11">
-        <v>0.06262694306109613</v>
+        <v>0.09385850084157203</v>
       </c>
       <c r="Q11">
-        <v>2.610315990903445</v>
+        <v>0.01345457162333333</v>
       </c>
       <c r="R11">
-        <v>23.492843918131</v>
+        <v>0.12109114461</v>
       </c>
       <c r="S11">
-        <v>0.05071633876710094</v>
+        <v>0.0004732138656658521</v>
       </c>
       <c r="T11">
-        <v>0.0611595619691456</v>
+        <v>0.0005173008297425445</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07651766666666666</v>
+        <v>0.135</v>
       </c>
       <c r="H12">
-        <v>0.229553</v>
+        <v>0.27</v>
       </c>
       <c r="I12">
-        <v>0.005998007213949779</v>
+        <v>0.01072806190806925</v>
       </c>
       <c r="J12">
-        <v>0.006036070697911585</v>
+        <v>0.007177708907217743</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6605333333333334</v>
+        <v>0.3024036666666667</v>
       </c>
       <c r="N12">
-        <v>1.9816</v>
+        <v>0.907211</v>
       </c>
       <c r="O12">
-        <v>0.1637209603602522</v>
+        <v>0.1338403725060509</v>
       </c>
       <c r="P12">
-        <v>0.1961884434749869</v>
+        <v>0.1457864030115969</v>
       </c>
       <c r="Q12">
-        <v>0.05054246942222223</v>
+        <v>0.040824495</v>
       </c>
       <c r="R12">
-        <v>0.4548822248000001</v>
+        <v>0.24494697</v>
       </c>
       <c r="S12">
-        <v>0.0009819995013155786</v>
+        <v>0.001435847802043963</v>
       </c>
       <c r="T12">
-        <v>0.001184207314928252</v>
+        <v>0.001046412363447575</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07651766666666666</v>
+        <v>0.135</v>
       </c>
       <c r="H13">
-        <v>0.229553</v>
+        <v>0.27</v>
       </c>
       <c r="I13">
-        <v>0.005998007213949779</v>
+        <v>0.01072806190806925</v>
       </c>
       <c r="J13">
-        <v>0.006036070697911585</v>
+        <v>0.007177708907217743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.830056</v>
       </c>
       <c r="O13">
-        <v>0.2338208953337171</v>
+        <v>0.4175167069766398</v>
       </c>
       <c r="P13">
-        <v>0.2801898877609242</v>
+        <v>0.4547824977446127</v>
       </c>
       <c r="Q13">
-        <v>0.07218309388533332</v>
+        <v>0.12735252</v>
       </c>
       <c r="R13">
-        <v>0.649647844968</v>
+        <v>0.76411512</v>
       </c>
       <c r="S13">
-        <v>0.001402459416983832</v>
+        <v>0.0044791450800986</v>
       </c>
       <c r="T13">
-        <v>0.00169124597136485</v>
+        <v>0.00326429638490824</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07651766666666666</v>
+        <v>0.135</v>
       </c>
       <c r="H14">
-        <v>0.229553</v>
+        <v>0.27</v>
       </c>
       <c r="I14">
-        <v>0.005998007213949779</v>
+        <v>0.01072806190806925</v>
       </c>
       <c r="J14">
-        <v>0.006036070697911585</v>
+        <v>0.007177708907217743</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2167396666666667</v>
+        <v>0.2635616666666666</v>
       </c>
       <c r="N14">
-        <v>0.650219</v>
+        <v>0.790685</v>
       </c>
       <c r="O14">
-        <v>0.05372147715204018</v>
+        <v>0.116649351622662</v>
       </c>
       <c r="P14">
-        <v>0.06437497654817444</v>
+        <v>0.1270609836798986</v>
       </c>
       <c r="Q14">
-        <v>0.01658441356744444</v>
+        <v>0.035580825</v>
       </c>
       <c r="R14">
-        <v>0.149259722107</v>
+        <v>0.21348495</v>
       </c>
       <c r="S14">
-        <v>0.0003222218075019752</v>
+        <v>0.001251421465744056</v>
       </c>
       <c r="T14">
-        <v>0.0003885719096211812</v>
+        <v>0.0009120067543190565</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07651766666666666</v>
+        <v>0.135</v>
       </c>
       <c r="H15">
-        <v>0.229553</v>
+        <v>0.27</v>
       </c>
       <c r="I15">
-        <v>0.005998007213949779</v>
+        <v>0.01072806190806925</v>
       </c>
       <c r="J15">
-        <v>0.006036070697911585</v>
+        <v>0.007177708907217743</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.0030275</v>
+        <v>0.555428</v>
       </c>
       <c r="N15">
-        <v>4.006055</v>
+        <v>1.110856</v>
       </c>
       <c r="O15">
-        <v>0.496473939132007</v>
+        <v>0.2458260220178906</v>
       </c>
       <c r="P15">
-        <v>0.3966197491548185</v>
+        <v>0.1785116147223198</v>
       </c>
       <c r="Q15">
-        <v>0.1532669905691667</v>
+        <v>0.07498278000000001</v>
       </c>
       <c r="R15">
-        <v>0.919601943415</v>
+        <v>0.2999311200000001</v>
       </c>
       <c r="S15">
-        <v>0.002977854268451841</v>
+        <v>0.002637236782822325</v>
       </c>
       <c r="T15">
-        <v>0.002394024846086443</v>
+        <v>0.001281304407034217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07651766666666666</v>
+        <v>0.135</v>
       </c>
       <c r="H16">
-        <v>0.229553</v>
+        <v>0.27</v>
       </c>
       <c r="I16">
-        <v>0.005998007213949779</v>
+        <v>0.01072806190806925</v>
       </c>
       <c r="J16">
-        <v>0.006036070697911585</v>
+        <v>0.007177708907217743</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,338 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2108543333333333</v>
+        <v>0.19469</v>
       </c>
       <c r="N16">
-        <v>0.632563</v>
+        <v>0.5840700000000001</v>
       </c>
       <c r="O16">
-        <v>0.05226272802198335</v>
+        <v>0.08616754687675653</v>
       </c>
       <c r="P16">
-        <v>0.06262694306109613</v>
+        <v>0.09385850084157203</v>
       </c>
       <c r="Q16">
-        <v>0.01613408159322222</v>
+        <v>0.02628315000000001</v>
       </c>
       <c r="R16">
-        <v>0.145206734339</v>
+        <v>0.1576989</v>
       </c>
       <c r="S16">
-        <v>0.0003134722196965514</v>
+        <v>0.000924410777360303</v>
       </c>
       <c r="T16">
-        <v>0.0003780206559108597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.2413405</v>
-      </c>
-      <c r="H17">
-        <v>0.482681</v>
-      </c>
-      <c r="I17">
-        <v>0.01891801100423318</v>
-      </c>
-      <c r="J17">
-        <v>0.01269204340844451</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.6605333333333334</v>
-      </c>
-      <c r="N17">
-        <v>1.9816</v>
-      </c>
-      <c r="O17">
-        <v>0.1637209603602522</v>
-      </c>
-      <c r="P17">
-        <v>0.1961884434749869</v>
-      </c>
-      <c r="Q17">
-        <v>0.1594134449333334</v>
-      </c>
-      <c r="R17">
-        <v>0.9564806696000002</v>
-      </c>
-      <c r="S17">
-        <v>0.003097274929718876</v>
-      </c>
-      <c r="T17">
-        <v>0.002490032240819695</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <v>0.2413405</v>
-      </c>
-      <c r="H18">
-        <v>0.482681</v>
-      </c>
-      <c r="I18">
-        <v>0.01891801100423318</v>
-      </c>
-      <c r="J18">
-        <v>0.01269204340844451</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.943352</v>
-      </c>
-      <c r="N18">
-        <v>2.830056</v>
-      </c>
-      <c r="O18">
-        <v>0.2338208953337171</v>
-      </c>
-      <c r="P18">
-        <v>0.2801898877609242</v>
-      </c>
-      <c r="Q18">
-        <v>0.227669043356</v>
-      </c>
-      <c r="R18">
-        <v>1.366014260136</v>
-      </c>
-      <c r="S18">
-        <v>0.004423426270942916</v>
-      </c>
-      <c r="T18">
-        <v>0.003556182218068844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.2413405</v>
-      </c>
-      <c r="H19">
-        <v>0.482681</v>
-      </c>
-      <c r="I19">
-        <v>0.01891801100423318</v>
-      </c>
-      <c r="J19">
-        <v>0.01269204340844451</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2167396666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.650219</v>
-      </c>
-      <c r="O19">
-        <v>0.05372147715204018</v>
-      </c>
-      <c r="P19">
-        <v>0.06437497654817444</v>
-      </c>
-      <c r="Q19">
-        <v>0.05230805952316667</v>
-      </c>
-      <c r="R19">
-        <v>0.313848357139</v>
-      </c>
-      <c r="S19">
-        <v>0.001016303495925958</v>
-      </c>
-      <c r="T19">
-        <v>0.0008170499967670271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.2413405</v>
-      </c>
-      <c r="H20">
-        <v>0.482681</v>
-      </c>
-      <c r="I20">
-        <v>0.01891801100423318</v>
-      </c>
-      <c r="J20">
-        <v>0.01269204340844451</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.0030275</v>
-      </c>
-      <c r="N20">
-        <v>4.006055</v>
-      </c>
-      <c r="O20">
-        <v>0.496473939132007</v>
-      </c>
-      <c r="P20">
-        <v>0.3966197491548185</v>
-      </c>
-      <c r="Q20">
-        <v>0.48341165836375</v>
-      </c>
-      <c r="R20">
-        <v>1.933646633455</v>
-      </c>
-      <c r="S20">
-        <v>0.009392299443814305</v>
-      </c>
-      <c r="T20">
-        <v>0.005033915072919328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>0.2413405</v>
-      </c>
-      <c r="H21">
-        <v>0.482681</v>
-      </c>
-      <c r="I21">
-        <v>0.01891801100423318</v>
-      </c>
-      <c r="J21">
-        <v>0.01269204340844451</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.2108543333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.632563</v>
-      </c>
-      <c r="O21">
-        <v>0.05226272802198335</v>
-      </c>
-      <c r="P21">
-        <v>0.06262694306109613</v>
-      </c>
-      <c r="Q21">
-        <v>0.05088769023383333</v>
-      </c>
-      <c r="R21">
-        <v>0.305326141403</v>
-      </c>
-      <c r="S21">
-        <v>0.0009887068638311269</v>
-      </c>
-      <c r="T21">
-        <v>0.0007948638798696147</v>
+        <v>0.0006736889975086556</v>
       </c>
     </row>
   </sheetData>
